--- a/الدرجات مفصلة.xlsx
+++ b/الدرجات مفصلة.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sarah's files\جيل الأمل\صيف 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sarah's files\جيل الأمل\صيف 2020\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A216BE-D3CC-4701-B098-C1C430E6F675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33790649-85BF-49FE-B076-4D75177FA139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC466C1F-A7B2-40A8-88ED-D07BB432F639}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
   <si>
     <t>إحسان</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>الدرس 9 (سلمان الفارسي)</t>
+  </si>
+  <si>
+    <t>الدرس 10 (تكملة سيدنا سلمان الفارسي)</t>
   </si>
 </sst>
 </file>
@@ -539,12 +542,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057048CE-BDAA-43E1-991D-F1019A16325B}">
-  <dimension ref="B1:N21"/>
+  <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,8 +555,8 @@
     <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.35">
@@ -1065,6 +1068,29 @@
         <v>33</v>
       </c>
     </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/الدرجات مفصلة.xlsx
+++ b/الدرجات مفصلة.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sarah's files\جيل الأمل\صيف 2020\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33790649-85BF-49FE-B076-4D75177FA139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA9C36C-0A1F-4C1A-9459-B4114E6D534C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC466C1F-A7B2-40A8-88ED-D07BB432F639}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="37">
   <si>
     <t>إحسان</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>الدرس 10 (تكملة سيدنا سلمان الفارسي)</t>
+  </si>
+  <si>
+    <t>الدرس 11 (آداب فتية حول الرسول)</t>
+  </si>
+  <si>
+    <t>التكليف:5</t>
   </si>
 </sst>
 </file>
@@ -542,12 +548,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057048CE-BDAA-43E1-991D-F1019A16325B}">
-  <dimension ref="B1:N22"/>
+  <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="135" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1091,6 +1097,54 @@
         <v>34</v>
       </c>
     </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/الدرجات مفصلة.xlsx
+++ b/الدرجات مفصلة.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sarah's files\جيل الأمل\صيف 2020\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA9C36C-0A1F-4C1A-9459-B4114E6D534C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD876DA1-1277-480D-95AC-BE5AD50B2CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC466C1F-A7B2-40A8-88ED-D07BB432F639}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="38">
   <si>
     <t>إحسان</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>التكليف:5</t>
+  </si>
+  <si>
+    <t>الدرس 12 (أخلاق فتية حول الرسول 2)</t>
   </si>
 </sst>
 </file>
@@ -548,12 +551,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057048CE-BDAA-43E1-991D-F1019A16325B}">
-  <dimension ref="B1:N25"/>
+  <dimension ref="B1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,6 +1148,35 @@
         <v>22</v>
       </c>
     </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
